--- a/get_nhl_cap/2023-2024/keepers_2023-2024_before_cut_alain.xlsx
+++ b/get_nhl_cap/2023-2024/keepers_2023-2024_before_cut_alain.xlsx
@@ -11,13 +11,18 @@
     <sheet name="alain" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="alain_2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="ben" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="couv" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="mark" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="math" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="ben_2" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="couv" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="couv_2" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="mark" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="mark_2" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="math" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="math_2" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">alain_2!$A$1:$R$22</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">mark!$A$1:$P$22</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">mark!$A$1:$P$22</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">mark_2!$A$1:$F$22</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="177">
   <si>
     <t xml:space="preserve">NHL rank</t>
   </si>
@@ -557,6 +562,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ryan Hartman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
 </sst>
 </file>
@@ -568,7 +576,7 @@
     <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -597,8 +605,15 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,6 +630,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EA6B"/>
         <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -655,7 +676,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -684,7 +705,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -700,15 +721,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -724,11 +737,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -742,7 +795,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Untitled1" xfId="20"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -761,6 +814,13 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFC9211E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -836,6 +896,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -843,14 +907,14 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q30" activeCellId="0" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="5.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="3.45"/>
@@ -1931,6 +1995,663 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.24"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="24.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>12600000</v>
+      </c>
+    </row>
+    <row r="3" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="18" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="17" t="n">
+        <v>78</v>
+      </c>
+      <c r="H3" s="17" t="n">
+        <v>142</v>
+      </c>
+      <c r="I3" s="18" t="n">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="4" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="n">
+        <v>58</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="18" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="17" t="n">
+        <v>82</v>
+      </c>
+      <c r="H4" s="17" t="n">
+        <v>99</v>
+      </c>
+      <c r="I4" s="18" t="n">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>8125000</v>
+      </c>
+    </row>
+    <row r="6" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="n">
+        <v>49</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="18" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="17" t="n">
+        <v>78</v>
+      </c>
+      <c r="H6" s="17" t="n">
+        <v>161</v>
+      </c>
+      <c r="I6" s="18" t="n">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>7350000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>7350000</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="n">
+        <v>140</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="18" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="17" t="n">
+        <v>78</v>
+      </c>
+      <c r="H8" s="17" t="n">
+        <v>111</v>
+      </c>
+      <c r="I8" s="18" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="9" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="n">
+        <v>212</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="18" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <v>72</v>
+      </c>
+      <c r="H9" s="17" t="n">
+        <v>85</v>
+      </c>
+      <c r="I9" s="18" t="n">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="10" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="n">
+        <v>237</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="18" t="n">
+        <v>916667</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>79</v>
+      </c>
+      <c r="H10" s="17" t="n">
+        <v>74</v>
+      </c>
+      <c r="I10" s="18" t="n">
+        <v>916667</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>289</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="12" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="18" t="n">
+        <v>3400000</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="17" t="n">
+        <v>62</v>
+      </c>
+      <c r="H12" s="17" t="n">
+        <v>151</v>
+      </c>
+      <c r="I12" s="18" t="n">
+        <v>3400000</v>
+      </c>
+    </row>
+    <row r="13" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="18" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="17" t="n">
+        <v>61</v>
+      </c>
+      <c r="H13" s="17" t="n">
+        <v>147</v>
+      </c>
+      <c r="I13" s="18" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>10500000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>7875000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="I16" s="5" t="n">
+        <v>5800000</v>
+      </c>
+    </row>
+    <row r="17" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="n">
+        <v>158</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="18" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="17" t="n">
+        <v>81</v>
+      </c>
+      <c r="H17" s="17" t="n">
+        <v>65</v>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="18" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="n">
+        <v>156</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" s="18" t="n">
+        <v>925000</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="17" t="n">
+        <v>74</v>
+      </c>
+      <c r="H18" s="17" t="n">
+        <v>62</v>
+      </c>
+      <c r="I18" s="18" t="n">
+        <v>925000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>293</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="I19" s="5" t="n">
+        <v>4200000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>278</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="I20" s="5" t="n">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="I21" s="5" t="n">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="5" t="n">
+        <f aca="false">SUM(C2:C21)</f>
+        <v>41791667</v>
+      </c>
+      <c r="I22" s="5" t="n">
+        <f aca="false">SUM(I2:I21)</f>
+        <v>106091667</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1938,14 +2659,14 @@
   </sheetPr>
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C53" activeCellId="0" sqref="C53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="5.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="3.45"/>
@@ -1957,7 +2678,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="8.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="7.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="9.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="14.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2065,11 +2786,11 @@
       <c r="P2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="11" t="n">
+      <c r="Q2" s="10" t="n">
         <f aca="false">M2</f>
         <v>894167</v>
       </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="11" t="n">
         <f aca="false">M2/L2</f>
         <v>10773.0963855422</v>
       </c>
@@ -2123,11 +2844,11 @@
       <c r="P3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="11" t="n">
+      <c r="Q3" s="10" t="n">
         <f aca="false">M3</f>
         <v>894167</v>
       </c>
-      <c r="R3" s="12" t="n">
+      <c r="R3" s="11" t="n">
         <f aca="false">M3/L3</f>
         <v>23530.7105263158</v>
       </c>
@@ -2178,65 +2899,65 @@
       <c r="P4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="12" t="n">
+      <c r="Q4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11" t="n">
         <f aca="false">M4/L4</f>
         <v>33950.6172839506</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="12" t="n">
         <v>81</v>
       </c>
-      <c r="G5" s="14" t="n">
+      <c r="G5" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="H5" s="14" t="n">
+      <c r="H5" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="12" t="n">
         <v>82</v>
       </c>
-      <c r="J5" s="14" t="n">
+      <c r="J5" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="K5" s="14" t="n">
+      <c r="K5" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="L5" s="14" t="n">
+      <c r="L5" s="12" t="n">
         <v>114</v>
       </c>
-      <c r="M5" s="16" t="n">
+      <c r="M5" s="14" t="n">
         <v>8000000</v>
       </c>
-      <c r="N5" s="14" t="n">
+      <c r="N5" s="12" t="n">
         <v>56</v>
       </c>
-      <c r="O5" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="14" t="s">
+      <c r="O5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="12" t="n">
+      <c r="Q5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11" t="n">
         <f aca="false">M5/L5</f>
         <v>70175.4385964912</v>
       </c>
@@ -2290,11 +3011,11 @@
       <c r="P6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="11" t="n">
+      <c r="Q6" s="10" t="n">
         <f aca="false">M6</f>
         <v>863333</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="11" t="n">
         <f aca="false">M6/L6</f>
         <v>9700.37078651685</v>
       </c>
@@ -2348,11 +3069,11 @@
       <c r="P7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="11" t="n">
+      <c r="Q7" s="10" t="n">
         <f aca="false">M7</f>
         <v>925000</v>
       </c>
-      <c r="R7" s="12" t="n">
+      <c r="R7" s="11" t="n">
         <f aca="false">M7/L7</f>
         <v>13602.9411764706</v>
       </c>
@@ -2404,11 +3125,11 @@
       <c r="P8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="11" t="n">
+      <c r="Q8" s="10" t="n">
         <f aca="false">M8</f>
         <v>7850000</v>
       </c>
-      <c r="R8" s="12" t="n">
+      <c r="R8" s="11" t="n">
         <f aca="false">M8/L8</f>
         <v>49371.0691823899</v>
       </c>
@@ -2459,10 +3180,10 @@
       <c r="P9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="12" t="n">
+      <c r="Q9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11" t="n">
         <f aca="false">M9/L9</f>
         <v>57777.7777777778</v>
       </c>
@@ -2514,66 +3235,66 @@
       <c r="P10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="11" t="n">
+      <c r="Q10" s="10" t="n">
         <f aca="false">M10</f>
         <v>9000000</v>
       </c>
-      <c r="R10" s="12" t="n">
+      <c r="R10" s="11" t="n">
         <f aca="false">M10/L10</f>
         <v>60402.6845637584</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="A11" s="12" t="n">
         <v>211</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F11" s="12" t="n">
         <v>71</v>
       </c>
-      <c r="G11" s="14" t="n">
+      <c r="G11" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="H11" s="14" t="n">
+      <c r="H11" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="I11" s="14" t="n">
+      <c r="I11" s="12" t="n">
         <v>38</v>
       </c>
-      <c r="J11" s="14" t="n">
+      <c r="J11" s="12" t="n">
         <v>42</v>
       </c>
-      <c r="K11" s="14" t="n">
+      <c r="K11" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="L11" s="14" t="n">
+      <c r="L11" s="12" t="n">
         <v>90</v>
       </c>
-      <c r="M11" s="16" t="n">
+      <c r="M11" s="14" t="n">
         <v>7500000</v>
       </c>
-      <c r="N11" s="14" t="n">
+      <c r="N11" s="12" t="n">
         <v>120</v>
       </c>
-      <c r="O11" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="14" t="s">
+      <c r="O11" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="12" t="n">
+      <c r="Q11" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11" t="n">
         <f aca="false">M11/L11</f>
         <v>83333.3333333333</v>
       </c>
@@ -2624,10 +3345,10 @@
       <c r="P12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" s="12" t="n">
+      <c r="Q12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="11" t="n">
         <f aca="false">M12/L12</f>
         <v>10087.7236842105</v>
       </c>
@@ -2678,10 +3399,10 @@
       <c r="P13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="12" t="n">
+      <c r="Q13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="11" t="n">
         <f aca="false">M13/L13</f>
         <v>38167.9389312977</v>
       </c>
@@ -2735,11 +3456,11 @@
       <c r="P14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="11" t="n">
+      <c r="Q14" s="10" t="n">
         <f aca="false">M14</f>
         <v>1500000</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="11" t="n">
         <f aca="false">M14/L14</f>
         <v>15957.4468085106</v>
       </c>
@@ -2791,11 +3512,11 @@
       <c r="P15" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="11" t="n">
+      <c r="Q15" s="10" t="n">
         <f aca="false">M15</f>
         <v>5500000</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="11" t="n">
         <f aca="false">M15/L15</f>
         <v>48672.5663716814</v>
       </c>
@@ -2847,11 +3568,11 @@
       <c r="P16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="11" t="n">
+      <c r="Q16" s="10" t="n">
         <f aca="false">M16</f>
         <v>7750000</v>
       </c>
-      <c r="R16" s="12" t="n">
+      <c r="R16" s="11" t="n">
         <f aca="false">M16/L16</f>
         <v>50000</v>
       </c>
@@ -2903,11 +3624,11 @@
       <c r="P17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q17" s="11" t="n">
+      <c r="Q17" s="10" t="n">
         <f aca="false">M17</f>
         <v>7142857</v>
       </c>
-      <c r="R17" s="12" t="n">
+      <c r="R17" s="11" t="n">
         <f aca="false">M17/L17</f>
         <v>50658.5602836879</v>
       </c>
@@ -2958,10 +3679,10 @@
       <c r="P18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" s="12" t="n">
+      <c r="Q18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="11" t="n">
         <f aca="false">M18/L18</f>
         <v>55045.871559633</v>
       </c>
@@ -3012,10 +3733,10 @@
       <c r="P19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="12" t="n">
+      <c r="Q19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11" t="n">
         <f aca="false">M19/L19</f>
         <v>64350.0630630631</v>
       </c>
@@ -3066,10 +3787,10 @@
       <c r="P20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="12" t="n">
+      <c r="Q20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="11" t="n">
         <f aca="false">M20/L20</f>
         <v>66433.5664335664</v>
       </c>
@@ -3120,10 +3841,10 @@
       <c r="P21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" s="12" t="n">
+      <c r="Q21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11" t="n">
         <f aca="false">M21/L21</f>
         <v>126612.903225806</v>
       </c>
@@ -3187,11 +3908,11 @@
       <c r="P24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="11" t="n">
+      <c r="Q24" s="10" t="n">
         <f aca="false">M24</f>
         <v>863333</v>
       </c>
-      <c r="R24" s="12" t="n">
+      <c r="R24" s="11" t="n">
         <f aca="false">M24/L24</f>
         <v>9700.37078651685</v>
       </c>
@@ -3245,11 +3966,11 @@
       <c r="P25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="13" t="n">
+      <c r="Q25" s="5" t="n">
         <f aca="false">M25</f>
         <v>766667</v>
       </c>
-      <c r="R25" s="12" t="n">
+      <c r="R25" s="11" t="n">
         <f aca="false">M25/L25</f>
         <v>10087.7236842105</v>
       </c>
@@ -3303,11 +4024,11 @@
       <c r="P26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q26" s="11" t="n">
+      <c r="Q26" s="10" t="n">
         <f aca="false">M26</f>
         <v>894167</v>
       </c>
-      <c r="R26" s="12" t="n">
+      <c r="R26" s="11" t="n">
         <f aca="false">M26/L26</f>
         <v>10773.0963855422</v>
       </c>
@@ -3361,11 +4082,11 @@
       <c r="P27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="11" t="n">
+      <c r="Q27" s="10" t="n">
         <f aca="false">M27</f>
         <v>925000</v>
       </c>
-      <c r="R27" s="12" t="n">
+      <c r="R27" s="11" t="n">
         <f aca="false">M27/L27</f>
         <v>13602.9411764706</v>
       </c>
@@ -3419,11 +4140,11 @@
       <c r="P28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q28" s="11" t="n">
+      <c r="Q28" s="10" t="n">
         <f aca="false">M28</f>
         <v>1500000</v>
       </c>
-      <c r="R28" s="12" t="n">
+      <c r="R28" s="11" t="n">
         <f aca="false">M28/L28</f>
         <v>15957.4468085106</v>
       </c>
@@ -3477,11 +4198,11 @@
       <c r="P29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="11" t="n">
+      <c r="Q29" s="10" t="n">
         <f aca="false">M29</f>
         <v>894167</v>
       </c>
-      <c r="R29" s="12" t="n">
+      <c r="R29" s="11" t="n">
         <f aca="false">M29/L29</f>
         <v>23530.7105263158</v>
       </c>
@@ -3535,11 +4256,11 @@
       <c r="P30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="13" t="n">
+      <c r="Q30" s="5" t="n">
         <f aca="false">M30</f>
         <v>2750000</v>
       </c>
-      <c r="R30" s="12" t="n">
+      <c r="R30" s="11" t="n">
         <f aca="false">M30/L30</f>
         <v>33950.6172839506</v>
       </c>
@@ -3593,11 +4314,11 @@
       <c r="P31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q31" s="13" t="n">
+      <c r="Q31" s="5" t="n">
         <f aca="false">M31</f>
         <v>5000000</v>
       </c>
-      <c r="R31" s="12" t="n">
+      <c r="R31" s="11" t="n">
         <f aca="false">M31/L31</f>
         <v>38167.9389312977</v>
       </c>
@@ -3651,11 +4372,11 @@
       <c r="P32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q32" s="13" t="n">
+      <c r="Q32" s="5" t="n">
         <f aca="false">M32</f>
         <v>5500000</v>
       </c>
-      <c r="R32" s="12" t="n">
+      <c r="R32" s="11" t="n">
         <f aca="false">M32/L32</f>
         <v>48672.5663716814</v>
       </c>
@@ -3709,11 +4430,11 @@
       <c r="P33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="11" t="n">
+      <c r="Q33" s="10" t="n">
         <f aca="false">M33</f>
         <v>7850000</v>
       </c>
-      <c r="R33" s="12" t="n">
+      <c r="R33" s="11" t="n">
         <f aca="false">M33/L33</f>
         <v>49371.0691823899</v>
       </c>
@@ -3767,11 +4488,11 @@
       <c r="P34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="11" t="n">
+      <c r="Q34" s="10" t="n">
         <f aca="false">M34</f>
         <v>7750000</v>
       </c>
-      <c r="R34" s="12" t="n">
+      <c r="R34" s="11" t="n">
         <f aca="false">M34/L34</f>
         <v>50000</v>
       </c>
@@ -3825,11 +4546,11 @@
       <c r="P35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q35" s="11" t="n">
+      <c r="Q35" s="10" t="n">
         <f aca="false">M35</f>
         <v>7142857</v>
       </c>
-      <c r="R35" s="12" t="n">
+      <c r="R35" s="11" t="n">
         <f aca="false">M35/L35</f>
         <v>50658.5602836879</v>
       </c>
@@ -3883,11 +4604,11 @@
       <c r="P36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="13" t="n">
+      <c r="Q36" s="5" t="n">
         <f aca="false">M36</f>
         <v>6000000</v>
       </c>
-      <c r="R36" s="12" t="n">
+      <c r="R36" s="11" t="n">
         <f aca="false">M36/L36</f>
         <v>55045.871559633</v>
       </c>
@@ -3941,11 +4662,11 @@
       <c r="P37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q37" s="13" t="n">
+      <c r="Q37" s="5" t="n">
         <f aca="false">M37</f>
         <v>5200000</v>
       </c>
-      <c r="R37" s="12" t="n">
+      <c r="R37" s="11" t="n">
         <f aca="false">M37/L37</f>
         <v>57777.7777777778</v>
       </c>
@@ -3999,11 +4720,11 @@
       <c r="P38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="11" t="n">
+      <c r="Q38" s="10" t="n">
         <f aca="false">M38</f>
         <v>9000000</v>
       </c>
-      <c r="R38" s="12" t="n">
+      <c r="R38" s="11" t="n">
         <f aca="false">M38/L38</f>
         <v>60402.6845637584</v>
       </c>
@@ -4057,11 +4778,11 @@
       <c r="P39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q39" s="13" t="n">
+      <c r="Q39" s="5" t="n">
         <f aca="false">M39</f>
         <v>7142857</v>
       </c>
-      <c r="R39" s="12" t="n">
+      <c r="R39" s="11" t="n">
         <f aca="false">M39/L39</f>
         <v>64350.0630630631</v>
       </c>
@@ -4115,125 +4836,125 @@
       <c r="P40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q40" s="13" t="n">
+      <c r="Q40" s="5" t="n">
         <f aca="false">M40</f>
         <v>9500000</v>
       </c>
-      <c r="R40" s="12" t="n">
+      <c r="R40" s="11" t="n">
         <f aca="false">M40/L40</f>
         <v>66433.5664335664</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="14" t="n">
+      <c r="A41" s="12" t="n">
         <v>28</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F41" s="14" t="n">
+      <c r="F41" s="12" t="n">
         <v>81</v>
       </c>
-      <c r="G41" s="14" t="n">
+      <c r="G41" s="12" t="n">
         <v>32</v>
       </c>
-      <c r="H41" s="14" t="n">
+      <c r="H41" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="I41" s="14" t="n">
+      <c r="I41" s="12" t="n">
         <v>82</v>
       </c>
-      <c r="J41" s="14" t="n">
+      <c r="J41" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="K41" s="14" t="n">
+      <c r="K41" s="12" t="n">
         <v>50</v>
       </c>
-      <c r="L41" s="14" t="n">
+      <c r="L41" s="12" t="n">
         <v>114</v>
       </c>
-      <c r="M41" s="16" t="n">
+      <c r="M41" s="14" t="n">
         <v>8000000</v>
       </c>
-      <c r="N41" s="14" t="n">
+      <c r="N41" s="12" t="n">
         <v>56</v>
       </c>
-      <c r="O41" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="14" t="s">
+      <c r="O41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" s="12" t="n">
+      <c r="Q41" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" s="11" t="n">
         <f aca="false">M41/L41</f>
         <v>70175.4385964912</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="14" t="n">
+      <c r="A42" s="12" t="n">
         <v>211</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C42" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F42" s="14" t="n">
+      <c r="F42" s="12" t="n">
         <v>71</v>
       </c>
-      <c r="G42" s="14" t="n">
+      <c r="G42" s="12" t="n">
         <v>14</v>
       </c>
-      <c r="H42" s="14" t="n">
+      <c r="H42" s="12" t="n">
         <v>24</v>
       </c>
-      <c r="I42" s="14" t="n">
+      <c r="I42" s="12" t="n">
         <v>38</v>
       </c>
-      <c r="J42" s="14" t="n">
+      <c r="J42" s="12" t="n">
         <v>42</v>
       </c>
-      <c r="K42" s="14" t="n">
+      <c r="K42" s="12" t="n">
         <v>48</v>
       </c>
-      <c r="L42" s="14" t="n">
+      <c r="L42" s="12" t="n">
         <v>90</v>
       </c>
-      <c r="M42" s="16" t="n">
+      <c r="M42" s="14" t="n">
         <v>7500000</v>
       </c>
-      <c r="N42" s="14" t="n">
+      <c r="N42" s="12" t="n">
         <v>120</v>
       </c>
-      <c r="O42" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" s="14" t="s">
+      <c r="O42" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" s="12" t="n">
+      <c r="Q42" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="11" t="n">
         <f aca="false">M42/L42</f>
         <v>83333.3333333333</v>
       </c>
@@ -4287,11 +5008,11 @@
       <c r="P43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q43" s="13" t="n">
+      <c r="Q43" s="5" t="n">
         <f aca="false">M43</f>
         <v>7850000</v>
       </c>
-      <c r="R43" s="12" t="n">
+      <c r="R43" s="11" t="n">
         <f aca="false">M43/L43</f>
         <v>126612.903225806</v>
       </c>
@@ -4365,7 +5086,7 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N30" activeCellId="0" sqref="N30"/>
     </sheetView>
   </sheetViews>
@@ -5443,15 +6164,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O27" activeCellId="0" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.4"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5459,1052 +6192,821 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="13" t="n">
+        <v>82</v>
+      </c>
+      <c r="H2" s="13" t="n">
+        <v>78</v>
+      </c>
+      <c r="I2" s="13" t="n">
+        <v>52</v>
+      </c>
+      <c r="J2" s="13" t="n">
+        <v>130</v>
+      </c>
+      <c r="K2" s="14" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="L2" s="13" t="n">
+        <v>33</v>
+      </c>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+    </row>
+    <row r="3" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="n">
+        <v>50</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="13" t="n">
+        <v>79</v>
+      </c>
+      <c r="H3" s="13" t="n">
+        <v>74</v>
+      </c>
+      <c r="I3" s="13" t="n">
+        <v>36</v>
+      </c>
+      <c r="J3" s="13" t="n">
+        <v>110</v>
+      </c>
+      <c r="K3" s="14" t="n">
+        <v>8125000</v>
+      </c>
+      <c r="L3" s="13" t="n">
+        <v>70</v>
+      </c>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+    </row>
+    <row r="4" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="n">
+        <v>195</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="18" t="n">
+        <v>925000</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="17" t="n">
+        <v>79</v>
+      </c>
+      <c r="H4" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="I4" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="J4" s="17" t="n">
+        <v>56</v>
+      </c>
+      <c r="K4" s="18" t="n">
+        <v>925000</v>
+      </c>
+      <c r="L4" s="17" t="n">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="13" t="n">
+        <v>78</v>
+      </c>
+      <c r="H5" s="13" t="n">
+        <v>54</v>
+      </c>
+      <c r="I5" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="J5" s="13" t="n">
+        <v>85</v>
+      </c>
+      <c r="K5" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="13" t="n">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="6" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="n">
+        <v>57</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="18" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="17" t="n">
+        <v>82</v>
+      </c>
+      <c r="H6" s="17" t="n">
+        <v>36</v>
+      </c>
+      <c r="I6" s="17" t="n">
+        <v>120</v>
+      </c>
+      <c r="J6" s="17" t="n">
+        <v>156</v>
+      </c>
+      <c r="K6" s="18" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="L6" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="n">
+    </row>
+    <row r="7" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="n">
+        <v>94</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="13" t="n">
+        <v>82</v>
+      </c>
+      <c r="H7" s="13" t="n">
+        <v>54</v>
+      </c>
+      <c r="I7" s="13" t="n">
+        <v>86</v>
+      </c>
+      <c r="J7" s="13" t="n">
+        <v>140</v>
+      </c>
+      <c r="K7" s="14" t="n">
+        <v>5280000</v>
+      </c>
+      <c r="L7" s="13" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="n">
         <v>80</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="B8" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="13" t="n">
+        <v>79</v>
+      </c>
+      <c r="H8" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" s="13" t="n">
+        <v>108</v>
+      </c>
+      <c r="J8" s="13" t="n">
+        <v>138</v>
+      </c>
+      <c r="K8" s="14" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="L8" s="13" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="20" t="n">
+        <v>134</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="21" t="n">
+        <v>4100000</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>80</v>
+      </c>
+      <c r="H9" s="20" t="n">
+        <v>21</v>
+      </c>
+      <c r="I9" s="20" t="n">
+        <v>86</v>
+      </c>
+      <c r="J9" s="20" t="n">
+        <v>107</v>
+      </c>
+      <c r="K9" s="21" t="n">
+        <v>4100000</v>
+      </c>
+      <c r="L9" s="20" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="n">
+        <v>138</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="13" t="n">
         <v>76</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>128</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>104</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="M2" s="5" t="n">
-        <v>8500000</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>99</v>
-      </c>
-      <c r="M3" s="5" t="n">
-        <v>7100000</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="O3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="H10" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="I10" s="13" t="n">
         <v>80</v>
       </c>
-      <c r="G4" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>4850000</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>135</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>167</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>894167</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>245</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>141</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="J10" s="13" t="n">
+        <v>107</v>
+      </c>
+      <c r="K10" s="14" t="n">
+        <v>7875000</v>
+      </c>
+      <c r="L10" s="13" t="n">
         <v>79</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>109</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>4550000</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>183</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="L7" s="2" t="n">
-        <v>95</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>4125000</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>102</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="K8" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="L8" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>6100000</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>107</v>
-      </c>
-      <c r="O8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>198</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="K9" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="L9" s="2" t="n">
-        <v>88</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>3900000</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>129</v>
-      </c>
-      <c r="O9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>201</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="L10" s="2" t="n">
-        <v>87</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>4400000</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>130</v>
-      </c>
-      <c r="O10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>111</v>
+        <v>83</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="G11" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="13" t="n">
+        <v>60</v>
+      </c>
+      <c r="H12" s="13" t="n">
+        <v>102</v>
+      </c>
+      <c r="I12" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="J12" s="13" t="n">
+        <v>126</v>
+      </c>
+      <c r="K12" s="14" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="L12" s="13" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="18" t="n">
+        <v>3400000</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="17" t="n">
+        <v>33</v>
+      </c>
+      <c r="H13" s="17" t="n">
+        <v>63</v>
+      </c>
+      <c r="I13" s="17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" s="17" t="n">
+        <v>69</v>
+      </c>
+      <c r="K13" s="18" t="n">
+        <v>3400000</v>
+      </c>
+      <c r="L13" s="17" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="18" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="17" t="n">
+        <v>79</v>
+      </c>
+      <c r="H14" s="17" t="n">
+        <v>72</v>
+      </c>
+      <c r="I14" s="17" t="n">
+        <v>47</v>
+      </c>
+      <c r="J14" s="17" t="n">
+        <v>119</v>
+      </c>
+      <c r="K14" s="18" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="L14" s="17" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>189</v>
+      </c>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+    </row>
+    <row r="16" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17" t="n">
+        <v>581</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="18" t="n">
+        <v>950000</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="17" t="n">
+        <v>39</v>
+      </c>
+      <c r="H16" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="I16" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" s="17" t="n">
+        <v>14</v>
+      </c>
+      <c r="K16" s="18" t="n">
+        <v>950000</v>
+      </c>
+      <c r="L16" s="17" t="n">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="17" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="17" t="n">
+        <v>90</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="18" t="n">
+        <v>4975000</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="G11" s="2" t="n">
+      <c r="H17" s="17" t="n">
+        <v>44</v>
+      </c>
+      <c r="I17" s="17" t="n">
+        <v>40</v>
+      </c>
+      <c r="J17" s="17" t="n">
+        <v>84</v>
+      </c>
+      <c r="K17" s="18" t="n">
+        <v>4975000</v>
+      </c>
+      <c r="L17" s="17" t="n">
+        <v>143</v>
+      </c>
+      <c r="M17" s="19"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="n">
+        <v>92</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="13" t="n">
+        <v>70</v>
+      </c>
+      <c r="H18" s="13" t="n">
+        <v>46</v>
+      </c>
+      <c r="I18" s="13" t="n">
+        <v>38</v>
+      </c>
+      <c r="J18" s="13" t="n">
+        <v>84</v>
+      </c>
+      <c r="K18" s="14" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="L18" s="13" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="n">
+        <v>223</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="18" t="n">
+        <v>863333</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="17" t="n">
+        <v>75</v>
+      </c>
+      <c r="H19" s="17" t="n">
+        <v>28</v>
+      </c>
+      <c r="I19" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="J19" s="17" t="n">
+        <v>51</v>
+      </c>
+      <c r="K19" s="18" t="n">
+        <v>863333</v>
+      </c>
+      <c r="L19" s="17" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="n">
+        <v>642</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="18" t="n">
+        <v>925000</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="17" t="n">
+        <v>39</v>
+      </c>
+      <c r="H20" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="I20" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" s="17" t="n">
+        <v>11</v>
+      </c>
+      <c r="K20" s="18" t="n">
+        <v>925000</v>
+      </c>
+      <c r="L20" s="17" t="n">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="21" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="17" t="n">
+        <v>687</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="18" t="n">
+        <v>894167</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="17" t="n">
+        <v>19</v>
+      </c>
+      <c r="H21" s="17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I21" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>886667</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>9999</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L12" s="2" t="n">
-        <v>134</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>5666667</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="O12" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
-        <v>9999</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="L13" s="2" t="n">
-        <v>130</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="O13" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="L14" s="2" t="n">
-        <v>115</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="O14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>449</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="K15" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="L15" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>2665000</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>533</v>
-      </c>
-      <c r="O15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>113</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>122</v>
-      </c>
-      <c r="K16" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="L16" s="2" t="n">
-        <v>174</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>11250000</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="O16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
-        <v>113</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="L17" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>7750000</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>164</v>
-      </c>
-      <c r="O17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
-        <v>147</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="L18" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>6125000</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>222</v>
-      </c>
-      <c r="O18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
-        <v>265</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="K19" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="L19" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>855833</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>357</v>
-      </c>
-      <c r="O19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
-        <v>304</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="K20" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="M20" s="5" t="n">
+      <c r="K21" s="18" t="n">
         <v>894167</v>
       </c>
-      <c r="N20" s="2" t="n">
-        <v>382</v>
-      </c>
-      <c r="O20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
-        <v>9999</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>82</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="K21" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="L21" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>9999</v>
-      </c>
-      <c r="O21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>98</v>
+      <c r="L21" s="17" t="n">
+        <v>701</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M22" s="5" t="n">
-        <f aca="false">SUM(M2:M21)</f>
-        <v>93512501</v>
+      <c r="C22" s="5" t="n">
+        <f aca="false">SUM(C2:C21)</f>
+        <v>32032500</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <f aca="false">SUM(K2:K21)</f>
+        <v>91312500</v>
       </c>
     </row>
   </sheetData>
@@ -6525,8 +7027,2065 @@
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H43" activeCellId="0" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="24.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="M3" s="5" t="n">
+        <v>7100000</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>4850000</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>894167</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>245</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>4125000</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>6100000</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>4400000</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>277</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>886667</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>5666667</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>449</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>2665000</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>533</v>
+      </c>
+      <c r="O15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>11250000</v>
+      </c>
+      <c r="N16" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>7750000</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="O17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>6125000</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>265</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>855833</v>
+      </c>
+      <c r="N19" s="2" t="n">
+        <v>357</v>
+      </c>
+      <c r="O19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>304</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>894167</v>
+      </c>
+      <c r="N20" s="2" t="n">
+        <v>382</v>
+      </c>
+      <c r="O20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2" t="n">
+        <v>9999</v>
+      </c>
+      <c r="O21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M22" s="5" t="n">
+        <f aca="false">SUM(M2:M21)</f>
+        <v>93512501</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="2.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="3.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="3.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="2.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.97"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="70.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="18" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="17" t="n">
+        <v>80</v>
+      </c>
+      <c r="H2" s="17" t="n">
+        <v>104</v>
+      </c>
+      <c r="I2" s="17" t="n">
+        <v>76</v>
+      </c>
+      <c r="J2" s="17" t="n">
+        <v>180</v>
+      </c>
+      <c r="K2" s="18" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="L2" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="23" t="n">
+        <v>62</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="23" t="n">
+        <v>81</v>
+      </c>
+      <c r="H3" s="23" t="n">
+        <v>62</v>
+      </c>
+      <c r="I3" s="23" t="n">
+        <v>37</v>
+      </c>
+      <c r="J3" s="23" t="n">
+        <v>99</v>
+      </c>
+      <c r="K3" s="24" t="n">
+        <v>7100000</v>
+      </c>
+      <c r="L3" s="23" t="n">
+        <v>91</v>
+      </c>
+      <c r="M3" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>4850000</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="n">
+        <v>167</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="18" t="n">
+        <v>894167</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="17" t="n">
+        <v>80</v>
+      </c>
+      <c r="H5" s="17" t="n">
+        <v>34</v>
+      </c>
+      <c r="I5" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="J5" s="17" t="n">
+        <v>60</v>
+      </c>
+      <c r="K5" s="18" t="n">
+        <v>894167</v>
+      </c>
+      <c r="L5" s="17" t="n">
+        <v>245</v>
+      </c>
+      <c r="M5" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="n">
+        <v>141</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="18" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="17" t="n">
+        <v>79</v>
+      </c>
+      <c r="H6" s="17" t="n">
+        <v>33</v>
+      </c>
+      <c r="I6" s="17" t="n">
+        <v>76</v>
+      </c>
+      <c r="J6" s="17" t="n">
+        <v>109</v>
+      </c>
+      <c r="K6" s="18" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="L6" s="17" t="n">
+        <v>74</v>
+      </c>
+      <c r="M6" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>4125000</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="23" t="n">
+        <v>180</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="23" t="n">
+        <v>64</v>
+      </c>
+      <c r="H8" s="23" t="n">
+        <v>36</v>
+      </c>
+      <c r="I8" s="23" t="n">
+        <v>58</v>
+      </c>
+      <c r="J8" s="23" t="n">
+        <v>94</v>
+      </c>
+      <c r="K8" s="24" t="n">
+        <v>6100000</v>
+      </c>
+      <c r="L8" s="23" t="n">
+        <v>107</v>
+      </c>
+      <c r="M8" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="n">
+        <v>198</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="18" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="17" t="n">
+        <v>82</v>
+      </c>
+      <c r="H9" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="I9" s="17" t="n">
+        <v>64</v>
+      </c>
+      <c r="J9" s="17" t="n">
+        <v>88</v>
+      </c>
+      <c r="K9" s="18" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="L9" s="17" t="n">
+        <v>129</v>
+      </c>
+      <c r="M9" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="n">
+        <v>201</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="18" t="n">
+        <v>4400000</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="17" t="n">
+        <v>64</v>
+      </c>
+      <c r="H10" s="17" t="n">
+        <v>27</v>
+      </c>
+      <c r="I10" s="17" t="n">
+        <v>60</v>
+      </c>
+      <c r="J10" s="17" t="n">
+        <v>87</v>
+      </c>
+      <c r="K10" s="18" t="n">
+        <v>4400000</v>
+      </c>
+      <c r="L10" s="17" t="n">
+        <v>130</v>
+      </c>
+      <c r="M10" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="n">
+        <v>277</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="18" t="n">
+        <v>886667</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="17" t="n">
+        <v>82</v>
+      </c>
+      <c r="H11" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="I11" s="17" t="n">
+        <v>48</v>
+      </c>
+      <c r="J11" s="17" t="n">
+        <v>69</v>
+      </c>
+      <c r="K11" s="18" t="n">
+        <v>886667</v>
+      </c>
+      <c r="L11" s="17" t="n">
+        <v>200</v>
+      </c>
+      <c r="M11" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="18" t="n">
+        <v>5666667</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="17" t="n">
+        <v>58</v>
+      </c>
+      <c r="H12" s="17" t="n">
+        <v>111</v>
+      </c>
+      <c r="I12" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="J12" s="17" t="n">
+        <v>134</v>
+      </c>
+      <c r="K12" s="18" t="n">
+        <v>5666667</v>
+      </c>
+      <c r="L12" s="17" t="n">
+        <v>29</v>
+      </c>
+      <c r="M12" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="18" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="17" t="n">
+        <v>60</v>
+      </c>
+      <c r="H13" s="17" t="n">
+        <v>93</v>
+      </c>
+      <c r="I13" s="17" t="n">
+        <v>30</v>
+      </c>
+      <c r="J13" s="17" t="n">
+        <v>130</v>
+      </c>
+      <c r="K13" s="18" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="L13" s="17" t="n">
+        <v>32</v>
+      </c>
+      <c r="M13" s="17" t="n">
+        <v>7</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="23" t="n">
+        <v>40</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="23" t="n">
+        <v>67</v>
+      </c>
+      <c r="H14" s="23" t="n">
+        <v>80</v>
+      </c>
+      <c r="I14" s="23" t="n">
+        <v>35</v>
+      </c>
+      <c r="J14" s="23" t="n">
+        <v>115</v>
+      </c>
+      <c r="K14" s="24" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="L14" s="23" t="n">
+        <v>54</v>
+      </c>
+      <c r="M14" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23" t="n">
+        <v>449</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="23" t="n">
+        <v>76</v>
+      </c>
+      <c r="H15" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="I15" s="23" t="n">
+        <v>12</v>
+      </c>
+      <c r="J15" s="23" t="n">
+        <v>24</v>
+      </c>
+      <c r="K15" s="24" t="n">
+        <v>2665000</v>
+      </c>
+      <c r="L15" s="23" t="n">
+        <v>533</v>
+      </c>
+      <c r="M15" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="23" t="n">
+        <v>82</v>
+      </c>
+      <c r="H16" s="23" t="n">
+        <v>122</v>
+      </c>
+      <c r="I16" s="23" t="n">
+        <v>52</v>
+      </c>
+      <c r="J16" s="23" t="n">
+        <v>174</v>
+      </c>
+      <c r="K16" s="24" t="n">
+        <v>11250000</v>
+      </c>
+      <c r="L16" s="23" t="n">
+        <v>4</v>
+      </c>
+      <c r="M16" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="23" t="n">
+        <v>113</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="23" t="n">
+        <v>64</v>
+      </c>
+      <c r="H17" s="23" t="n">
+        <v>46</v>
+      </c>
+      <c r="I17" s="23" t="n">
+        <v>32</v>
+      </c>
+      <c r="J17" s="23" t="n">
+        <v>78</v>
+      </c>
+      <c r="K17" s="24" t="n">
+        <v>7750000</v>
+      </c>
+      <c r="L17" s="23" t="n">
+        <v>164</v>
+      </c>
+      <c r="M17" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="23" t="n">
+        <v>147</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="23" t="n">
+        <v>53</v>
+      </c>
+      <c r="H18" s="23" t="n">
+        <v>34</v>
+      </c>
+      <c r="I18" s="23" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" s="23" t="n">
+        <v>64</v>
+      </c>
+      <c r="K18" s="24" t="n">
+        <v>6125000</v>
+      </c>
+      <c r="L18" s="23" t="n">
+        <v>222</v>
+      </c>
+      <c r="M18" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="17" t="n">
+        <v>265</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="18" t="n">
+        <v>855833</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="17" t="n">
+        <v>77</v>
+      </c>
+      <c r="H19" s="17" t="n">
+        <v>24</v>
+      </c>
+      <c r="I19" s="17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J19" s="17" t="n">
+        <v>44</v>
+      </c>
+      <c r="K19" s="18" t="n">
+        <v>855833</v>
+      </c>
+      <c r="L19" s="17" t="n">
+        <v>357</v>
+      </c>
+      <c r="M19" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="n">
+        <v>304</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="18" t="n">
+        <v>894167</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="17" t="n">
+        <v>56</v>
+      </c>
+      <c r="H20" s="17" t="n">
+        <v>26</v>
+      </c>
+      <c r="I20" s="17" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" s="17" t="n">
+        <v>41</v>
+      </c>
+      <c r="K20" s="18" t="n">
+        <v>894167</v>
+      </c>
+      <c r="L20" s="17" t="n">
+        <v>382</v>
+      </c>
+      <c r="M20" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="23" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="23" t="n">
+        <v>82</v>
+      </c>
+      <c r="H21" s="23" t="n">
+        <v>28</v>
+      </c>
+      <c r="I21" s="23" t="n">
+        <v>22</v>
+      </c>
+      <c r="J21" s="23" t="n">
+        <v>50</v>
+      </c>
+      <c r="K21" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="23" t="n">
+        <v>9999</v>
+      </c>
+      <c r="M21" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="5" t="n">
+        <f aca="false">SUM(C2:C21)</f>
+        <v>34547501</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <f aca="false">SUM(K2:K21)</f>
+        <v>93512501</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6580,7 +9139,7 @@
       <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -7603,14 +10162,478 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.24"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="116.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="18" t="n">
+        <v>12500000</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="17" t="n">
+        <v>217</v>
+      </c>
+      <c r="F2" s="18" t="n">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="3" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="n">
+        <v>103</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="18" t="n">
+        <v>897500</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="17" t="n">
+        <v>81</v>
+      </c>
+      <c r="F3" s="18" t="n">
+        <v>897500</v>
+      </c>
+    </row>
+    <row r="4" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="n">
+        <v>206</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="18" t="n">
+        <v>894167</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>53</v>
+      </c>
+      <c r="F4" s="18" t="n">
+        <v>894167</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="n">
+        <v>52</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="18" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>162</v>
+      </c>
+      <c r="F6" s="18" t="n">
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="7" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="17" t="n">
+        <v>189</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="18" t="n">
+        <v>2666667</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>95</v>
+      </c>
+      <c r="F7" s="18" t="n">
+        <v>2666667</v>
+      </c>
+    </row>
+    <row r="8" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="n">
+        <v>251</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="18" t="n">
+        <v>4600000</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>75</v>
+      </c>
+      <c r="F8" s="18" t="n">
+        <v>4600000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>936</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="n">
+        <v>38</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="18" t="n">
+        <v>6250000</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>168</v>
+      </c>
+      <c r="F10" s="18" t="n">
+        <v>6250000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>9999</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5375000</v>
+      </c>
+    </row>
+    <row r="14" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17" t="n">
+        <v>204</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="18" t="n">
+        <v>2325000</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="17" t="n">
+        <v>55</v>
+      </c>
+      <c r="F14" s="18" t="n">
+        <v>2325000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>8450000</v>
+      </c>
+    </row>
+    <row r="18" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="n">
+        <v>19</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="18" t="n">
+        <v>8350000</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="17" t="n">
+        <v>129</v>
+      </c>
+      <c r="F18" s="18" t="n">
+        <v>8350000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>3437500</v>
+      </c>
+    </row>
+    <row r="20" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="18" t="n">
+        <v>9250000</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="17" t="n">
+        <v>160</v>
+      </c>
+      <c r="F20" s="18" t="n">
+        <v>9250000</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>8800000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="5" t="n">
+        <f aca="false">SUM(C2:C21)</f>
+        <v>56233334</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <f aca="false">SUM(F2:F21)</f>
+        <v>101295834</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F22"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N28" activeCellId="0" sqref="N28"/>
     </sheetView>
   </sheetViews>
